--- a/site_classification/site_class.xlsx
+++ b/site_classification/site_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\Jeff\Github\stream-temperature-rf\site_classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D4C7CF-C897-49FC-8804-7659A110031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F66BDF-47A0-4B32-B86B-A40CF7ADCF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23115" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="845">
   <si>
     <t>Site</t>
   </si>
@@ -2567,6 +2567,12 @@
   </si>
   <si>
     <t>15</t>
+  </si>
+  <si>
+    <t>LAT_GAGE</t>
+  </si>
+  <si>
+    <t>LNG_GAGE</t>
   </si>
 </sst>
 </file>
@@ -2899,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D411"/>
+  <dimension ref="A1:F411"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A377" workbookViewId="0">
+      <selection activeCell="E411" sqref="E411"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2916,7 @@
     <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2923,8 +2929,14 @@
       <c r="D1" s="3" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2937,8 +2949,14 @@
       <c r="D2" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>42.354540999999998</v>
+      </c>
+      <c r="F2">
+        <v>-71.268112000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2951,8 +2969,14 @@
       <c r="D3" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>33.905658000000003</v>
+      </c>
+      <c r="F3">
+        <v>-84.224920999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +2989,14 @@
       <c r="D4" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>34.082329999999999</v>
+      </c>
+      <c r="F4">
+        <v>-83.854619999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2979,8 +3009,14 @@
       <c r="D5" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>38.959780000000002</v>
+      </c>
+      <c r="F5">
+        <v>-77.175669999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2993,8 +3029,14 @@
       <c r="D6" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>39.884999999999998</v>
+      </c>
+      <c r="F6">
+        <v>-74.50527778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3007,8 +3049,14 @@
       <c r="D7" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>39.496496999999998</v>
+      </c>
+      <c r="F7">
+        <v>-76.347459999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3021,8 +3069,14 @@
       <c r="D8" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>38.908889000000002</v>
+      </c>
+      <c r="F8">
+        <v>-77.338262999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3035,8 +3089,14 @@
       <c r="D9" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>38.901111</v>
+      </c>
+      <c r="F9">
+        <v>-76.942194000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -3049,8 +3109,14 @@
       <c r="D10" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>39.330083000000002</v>
+      </c>
+      <c r="F10">
+        <v>-76.534889000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -3063,8 +3129,14 @@
       <c r="D11" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>38.882390000000001</v>
+      </c>
+      <c r="F11">
+        <v>-77.431905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -3077,8 +3149,14 @@
       <c r="D12" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>40.027326000000002</v>
+      </c>
+      <c r="F12">
+        <v>-75.844944999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -3091,8 +3169,14 @@
       <c r="D13" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>45.476787000000002</v>
+      </c>
+      <c r="F13">
+        <v>-122.498424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -3105,8 +3189,14 @@
       <c r="D14" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>45.470951999999997</v>
+      </c>
+      <c r="F14">
+        <v>-121.865357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3119,8 +3209,14 @@
       <c r="D15" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>34.096488999999998</v>
+      </c>
+      <c r="F15">
+        <v>-84.079633999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -3133,8 +3229,14 @@
       <c r="D16" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>45.48011889</v>
+      </c>
+      <c r="F16">
+        <v>-122.0256385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -3147,8 +3249,14 @@
       <c r="D17" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>46.782147999999999</v>
+      </c>
+      <c r="F17">
+        <v>-87.877629999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -3161,8 +3269,14 @@
       <c r="D18" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>47.706771439999997</v>
+      </c>
+      <c r="F18">
+        <v>-121.6001069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -3175,8 +3289,14 @@
       <c r="D19" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>38.884695000000001</v>
+      </c>
+      <c r="F19">
+        <v>-77.332429000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -3189,8 +3309,14 @@
       <c r="D20" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>34.010382999999997</v>
+      </c>
+      <c r="F20">
+        <v>-83.894068000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -3203,8 +3329,14 @@
       <c r="D21" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>40.779946270000003</v>
+      </c>
+      <c r="F21">
+        <v>-111.806045</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -3217,8 +3349,14 @@
       <c r="D22" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>33.821497000000001</v>
+      </c>
+      <c r="F22">
+        <v>-83.942408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -3231,8 +3369,14 @@
       <c r="D23" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>45.494285609999999</v>
+      </c>
+      <c r="F23">
+        <v>-122.0359167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -3245,8 +3389,14 @@
       <c r="D24" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>33.965100999999997</v>
+      </c>
+      <c r="F24">
+        <v>-84.264922999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -3259,8 +3409,14 @@
       <c r="D25" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>43.431227</v>
+      </c>
+      <c r="F25">
+        <v>-123.58675700000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -3273,8 +3429,14 @@
       <c r="D26" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26">
+        <v>34.132599999999996</v>
+      </c>
+      <c r="F26">
+        <v>-84.069911000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -3287,8 +3449,14 @@
       <c r="D27" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27">
+        <v>39.111939999999997</v>
+      </c>
+      <c r="F27">
+        <v>-94.472219999999993</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -3301,8 +3469,14 @@
       <c r="D28" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>43.25367</v>
+      </c>
+      <c r="F28">
+        <v>-77.742230000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -3315,8 +3489,14 @@
       <c r="D29" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>48.832610000000003</v>
+      </c>
+      <c r="F29">
+        <v>-122.33905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -3329,8 +3509,14 @@
       <c r="D30" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>28.38500749</v>
+      </c>
+      <c r="F30">
+        <v>-81.616463199999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -3343,8 +3529,14 @@
       <c r="D31" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>33.778162999999999</v>
+      </c>
+      <c r="F31">
+        <v>-84.037969000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -3357,8 +3549,14 @@
       <c r="D32" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32">
+        <v>46.785758999999999</v>
+      </c>
+      <c r="F32">
+        <v>-87.852351999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -3371,8 +3569,14 @@
       <c r="D33" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33">
+        <v>33.688997000000001</v>
+      </c>
+      <c r="F33">
+        <v>-84.330479999999994</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -3385,8 +3589,14 @@
       <c r="D34" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <v>43.452152580000003</v>
+      </c>
+      <c r="F34">
+        <v>-110.7040913</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -3399,8 +3609,14 @@
       <c r="D35" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35">
+        <v>47.947325999999997</v>
+      </c>
+      <c r="F35">
+        <v>-121.626783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -3413,8 +3629,14 @@
       <c r="D36" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>39.033138999999998</v>
+      </c>
+      <c r="F36">
+        <v>-76.964277999999993</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -3427,8 +3649,14 @@
       <c r="D37" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>33.794272999999997</v>
+      </c>
+      <c r="F37">
+        <v>-84.474374999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -3441,8 +3669,14 @@
       <c r="D38" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38">
+        <v>45.486508999999998</v>
+      </c>
+      <c r="F38">
+        <v>-122.421757</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -3455,8 +3689,14 @@
       <c r="D39" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39">
+        <v>33.753476999999997</v>
+      </c>
+      <c r="F39">
+        <v>-81.601770999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -3469,8 +3709,14 @@
       <c r="D40" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40">
+        <v>45.444564020000001</v>
+      </c>
+      <c r="F40">
+        <v>-122.1095292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -3483,8 +3729,14 @@
       <c r="D41" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>40.735230000000001</v>
+      </c>
+      <c r="F41">
+        <v>-111.47602999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -3497,8 +3749,14 @@
       <c r="D42" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>33.340671999999998</v>
+      </c>
+      <c r="F42">
+        <v>-85.226889999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -3511,8 +3769,14 @@
       <c r="D43" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>33.534548999999998</v>
+      </c>
+      <c r="F43">
+        <v>-86.562484999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -3525,8 +3789,14 @@
       <c r="D44" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44">
+        <v>33.815106999999998</v>
+      </c>
+      <c r="F44">
+        <v>-83.990188000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -3539,8 +3809,14 @@
       <c r="D45" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45">
+        <v>38.88743023</v>
+      </c>
+      <c r="F45">
+        <v>-117.2453673</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -3553,8 +3829,14 @@
       <c r="D46" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46">
+        <v>47.689269289999999</v>
+      </c>
+      <c r="F46">
+        <v>-121.71344569999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -3567,8 +3849,14 @@
       <c r="D47" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>42.976942999999999</v>
+      </c>
+      <c r="F47">
+        <v>-89.539565999999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3581,8 +3869,14 @@
       <c r="D48" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>42.037316390000001</v>
+      </c>
+      <c r="F48">
+        <v>-72.938991099999996</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -3595,8 +3889,14 @@
       <c r="D49" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49">
+        <v>30.282184000000001</v>
+      </c>
+      <c r="F49">
+        <v>-81.740375999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -3609,8 +3909,14 @@
       <c r="D50" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>48.822924540000002</v>
+      </c>
+      <c r="F50">
+        <v>-120.14592450000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -3623,8 +3929,14 @@
       <c r="D51" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51">
+        <v>48.671500000000002</v>
+      </c>
+      <c r="F51">
+        <v>-122.1396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -3637,8 +3949,14 @@
       <c r="D52" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>33.678997000000003</v>
+      </c>
+      <c r="F52">
+        <v>-84.357980999999995</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -3651,8 +3969,14 @@
       <c r="D53" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53">
+        <v>45.415397769999998</v>
+      </c>
+      <c r="F53">
+        <v>-122.1714746</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -3665,8 +3989,14 @@
       <c r="D54" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54">
+        <v>38.812890660000001</v>
+      </c>
+      <c r="F54">
+        <v>-77.228315809999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -3679,8 +4009,14 @@
       <c r="D55" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>44.209570810000002</v>
+      </c>
+      <c r="F55">
+        <v>-122.256733</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -3693,8 +4029,14 @@
       <c r="D56" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56">
+        <v>44.652900000000002</v>
+      </c>
+      <c r="F56">
+        <v>-122.13090800000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -3707,8 +4049,14 @@
       <c r="D57" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57">
+        <v>33.869166999999997</v>
+      </c>
+      <c r="F57">
+        <v>-84.378889000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -3721,8 +4069,14 @@
       <c r="D58" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58">
+        <v>45.477620199999997</v>
+      </c>
+      <c r="F58">
+        <v>-122.50786859999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -3735,8 +4089,14 @@
       <c r="D59" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>33.711213000000001</v>
+      </c>
+      <c r="F59">
+        <v>-86.696100999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -3749,8 +4109,14 @@
       <c r="D60" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60">
+        <v>33.802883000000001</v>
+      </c>
+      <c r="F60">
+        <v>-84.340759000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -3763,8 +4129,14 @@
       <c r="D61" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61">
+        <v>45.049965</v>
+      </c>
+      <c r="F61">
+        <v>-93.310226999999998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -3777,8 +4149,14 @@
       <c r="D62" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62">
+        <v>35.990833330000001</v>
+      </c>
+      <c r="F62">
+        <v>-81.558333329999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -3791,8 +4169,14 @@
       <c r="D63" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>47.476666999999999</v>
+      </c>
+      <c r="F63">
+        <v>-116.221667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -3805,8 +4189,14 @@
       <c r="D64" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64">
+        <v>38.485717999999999</v>
+      </c>
+      <c r="F64">
+        <v>-109.41110399999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -3819,8 +4209,14 @@
       <c r="D65" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>47.696768169999999</v>
+      </c>
+      <c r="F65">
+        <v>-121.7873379</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -3833,8 +4229,14 @@
       <c r="D66" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66">
+        <v>43.130340570000001</v>
+      </c>
+      <c r="F66">
+        <v>-77.518608499999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -3847,8 +4249,14 @@
       <c r="D67" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>42.410924999999999</v>
+      </c>
+      <c r="F67">
+        <v>-71.791183000000004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -3861,8 +4269,14 @@
       <c r="D68" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>41.690611500000003</v>
+      </c>
+      <c r="F68">
+        <v>-80.048112189999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3875,8 +4289,14 @@
       <c r="D69" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69">
+        <v>33.917606999999997</v>
+      </c>
+      <c r="F69">
+        <v>-83.887957999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3889,8 +4309,14 @@
       <c r="D70" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>33.953888890000002</v>
+      </c>
+      <c r="F70">
+        <v>-84.443333330000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3903,8 +4329,14 @@
       <c r="D71" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71">
+        <v>45.403452000000001</v>
+      </c>
+      <c r="F71">
+        <v>-122.754819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3917,8 +4349,14 @@
       <c r="D72" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>33.5176059</v>
+      </c>
+      <c r="F72">
+        <v>-86.879158399999994</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3931,8 +4369,14 @@
       <c r="D73" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73">
+        <v>45.680669000000002</v>
+      </c>
+      <c r="F73">
+        <v>-123.07122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3945,8 +4389,14 @@
       <c r="D74" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>39.025561750000001</v>
+      </c>
+      <c r="F74">
+        <v>-94.343838520000006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3959,8 +4409,14 @@
       <c r="D75" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>40.723838000000001</v>
+      </c>
+      <c r="F75">
+        <v>-111.519644</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3973,8 +4429,14 @@
       <c r="D76" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76">
+        <v>33.527222000000002</v>
+      </c>
+      <c r="F76">
+        <v>-84.936389000000005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3987,8 +4449,14 @@
       <c r="D77" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>33.743440999999997</v>
+      </c>
+      <c r="F77">
+        <v>-84.568265999999994</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -4001,8 +4469,14 @@
       <c r="D78" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>33.831493000000002</v>
+      </c>
+      <c r="F78">
+        <v>-84.342703</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -4015,8 +4489,14 @@
       <c r="D79" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>38.919907700000003</v>
+      </c>
+      <c r="F79">
+        <v>-119.97240360000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -4029,8 +4509,14 @@
       <c r="D80" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>33.838437999999996</v>
+      </c>
+      <c r="F80">
+        <v>-84.439373000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -4043,8 +4529,14 @@
       <c r="D81" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>33.219284999999999</v>
+      </c>
+      <c r="F81">
+        <v>-96.891947999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -4057,8 +4549,14 @@
       <c r="D82" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82">
+        <v>47.370107330000003</v>
+      </c>
+      <c r="F82">
+        <v>-121.62510090000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -4071,8 +4569,14 @@
       <c r="D83" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83">
+        <v>44.45966</v>
+      </c>
+      <c r="F83">
+        <v>-110.82243</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -4085,8 +4589,14 @@
       <c r="D84" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>34.883982000000003</v>
+      </c>
+      <c r="F84">
+        <v>-83.721562000000006</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -4099,8 +4609,14 @@
       <c r="D85" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>42.703416939999997</v>
+      </c>
+      <c r="F85">
+        <v>-72.670647500000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -4113,8 +4629,14 @@
       <c r="D86" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>43.914292420000002</v>
+      </c>
+      <c r="F86">
+        <v>-122.6886762</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -4127,8 +4649,14 @@
       <c r="D87" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87">
+        <v>40.161388889999998</v>
+      </c>
+      <c r="F87">
+        <v>-74.154722199999995</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -4141,8 +4669,14 @@
       <c r="D88" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88">
+        <v>42.372869999999999</v>
+      </c>
+      <c r="F88">
+        <v>-71.828128000000007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -4155,8 +4689,14 @@
       <c r="D89" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89">
+        <v>34.700833330000002</v>
+      </c>
+      <c r="F89">
+        <v>-83.728888889999993</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -4169,8 +4709,14 @@
       <c r="D90" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90">
+        <v>41.695889999999999</v>
+      </c>
+      <c r="F90">
+        <v>-80.108109999999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -4183,8 +4729,14 @@
       <c r="D91" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91">
+        <v>39.985661440000001</v>
+      </c>
+      <c r="F91">
+        <v>-75.827446749999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -4197,8 +4749,14 @@
       <c r="D92" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>41.389511679999998</v>
+      </c>
+      <c r="F92">
+        <v>-77.690819099999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -4211,8 +4769,14 @@
       <c r="D93" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93">
+        <v>36.397777779999998</v>
+      </c>
+      <c r="F93">
+        <v>-79.196666669999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -4225,8 +4789,14 @@
       <c r="D94" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94">
+        <v>34.03232319</v>
+      </c>
+      <c r="F94">
+        <v>-84.089356390000006</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -4239,8 +4809,14 @@
       <c r="D95" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95">
+        <v>45.498174300000002</v>
+      </c>
+      <c r="F95">
+        <v>-122.0123049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -4253,8 +4829,14 @@
       <c r="D96" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96">
+        <v>39.57005556</v>
+      </c>
+      <c r="F96">
+        <v>-79.101944439999997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -4267,8 +4849,14 @@
       <c r="D97" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>35.667499999999997</v>
+      </c>
+      <c r="F97">
+        <v>-83.073611110000002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -4281,8 +4869,14 @@
       <c r="D98" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>33.597048999999998</v>
+      </c>
+      <c r="F98">
+        <v>-86.868048000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -4295,8 +4889,14 @@
       <c r="D99" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>40.979219999999998</v>
+      </c>
+      <c r="F99">
+        <v>-83.653265000000005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -4309,8 +4909,14 @@
       <c r="D100" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>37.552556000000003</v>
+      </c>
+      <c r="F100">
+        <v>-90.842444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -4323,8 +4929,14 @@
       <c r="D101" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>31.02527778</v>
+      </c>
+      <c r="F101">
+        <v>-89.016666670000006</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -4337,8 +4949,14 @@
       <c r="D102" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102">
+        <v>45.452897</v>
+      </c>
+      <c r="F102">
+        <v>-122.64315000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -4351,8 +4969,14 @@
       <c r="D103" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103">
+        <v>35.777253690000002</v>
+      </c>
+      <c r="F103">
+        <v>-105.6580725</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -4365,8 +4989,14 @@
       <c r="D104" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104">
+        <v>38.922407800000002</v>
+      </c>
+      <c r="F104">
+        <v>-119.9915706</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -4379,8 +5009,14 @@
       <c r="D105" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>39.961773430000001</v>
+      </c>
+      <c r="F105">
+        <v>-75.801334109999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -4393,8 +5029,14 @@
       <c r="D106" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>43.042307000000001</v>
+      </c>
+      <c r="F106">
+        <v>-71.200618000000006</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -4407,8 +5049,14 @@
       <c r="D107" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107">
+        <v>47.514256660000001</v>
+      </c>
+      <c r="F107">
+        <v>-123.3298868</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -4421,8 +5069,14 @@
       <c r="D108" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>40.75967</v>
+      </c>
+      <c r="F108">
+        <v>-111.564091</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -4435,8 +5089,14 @@
       <c r="D109" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>38.975943460000003</v>
+      </c>
+      <c r="F109">
+        <v>-77.245814390000007</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -4449,8 +5109,14 @@
       <c r="D110" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110">
+        <v>40.151490639999999</v>
+      </c>
+      <c r="F110">
+        <v>-75.601304970000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
@@ -4463,8 +5129,14 @@
       <c r="D111" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111">
+        <v>36.355359</v>
+      </c>
+      <c r="F111">
+        <v>-94.776338999999993</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -4477,8 +5149,14 @@
       <c r="D112" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>38.617060000000002</v>
+      </c>
+      <c r="F112">
+        <v>-79.869780000000006</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
@@ -4491,8 +5169,14 @@
       <c r="D113" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113">
+        <v>38.594555999999997</v>
+      </c>
+      <c r="F113">
+        <v>-75.291027999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
@@ -4505,8 +5189,14 @@
       <c r="D114" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>41.575339550000002</v>
+      </c>
+      <c r="F114">
+        <v>-78.692249189999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
@@ -4519,8 +5209,14 @@
       <c r="D115" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>40.146667000000001</v>
+      </c>
+      <c r="F115">
+        <v>-74.122221999999994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
@@ -4533,8 +5229,14 @@
       <c r="D116" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>34.716666670000002</v>
+      </c>
+      <c r="F116">
+        <v>-84.77</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
@@ -4547,8 +5249,14 @@
       <c r="D117" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>44.852777779999997</v>
+      </c>
+      <c r="F117">
+        <v>-92.238333330000003</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
@@ -4561,8 +5269,14 @@
       <c r="D118" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>44.910406999999999</v>
+      </c>
+      <c r="F118">
+        <v>-120.44086299999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
@@ -4575,8 +5289,14 @@
       <c r="D119" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>45.254387000000001</v>
+      </c>
+      <c r="F119">
+        <v>-109.699895</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -4589,8 +5309,14 @@
       <c r="D120" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120">
+        <v>33.653806000000003</v>
+      </c>
+      <c r="F120">
+        <v>-84.821027999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
@@ -4603,8 +5329,14 @@
       <c r="D121" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>41.890091529999999</v>
+      </c>
+      <c r="F121">
+        <v>-74.589879330000002</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
@@ -4617,8 +5349,14 @@
       <c r="D122" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>35.398055560000003</v>
+      </c>
+      <c r="F122">
+        <v>-82.594999999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
@@ -4631,8 +5369,14 @@
       <c r="D123" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123">
+        <v>45.340682889999997</v>
+      </c>
+      <c r="F123">
+        <v>-119.51585439999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
@@ -4645,8 +5389,14 @@
       <c r="D124" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>36.376145000000001</v>
+      </c>
+      <c r="F124">
+        <v>-97.800332999999995</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
@@ -4659,8 +5409,14 @@
       <c r="D125" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>33.360390000000002</v>
+      </c>
+      <c r="F125">
+        <v>-84.586320000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
@@ -4673,8 +5429,14 @@
       <c r="D126" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>43.50076</v>
+      </c>
+      <c r="F126">
+        <v>-110.8716</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
@@ -4687,8 +5449,14 @@
       <c r="D127" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127">
+        <v>43.322222199999999</v>
+      </c>
+      <c r="F127">
+        <v>-114.10666670000001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
@@ -4701,8 +5469,14 @@
       <c r="D128" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128">
+        <v>34.884256000000001</v>
+      </c>
+      <c r="F128">
+        <v>-92.701830999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
@@ -4715,8 +5489,14 @@
       <c r="D129" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129">
+        <v>41.553117610000001</v>
+      </c>
+      <c r="F129">
+        <v>-78.596134660000004</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
@@ -4729,8 +5509,14 @@
       <c r="D130" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130">
+        <v>33.099853500000002</v>
+      </c>
+      <c r="F130">
+        <v>-83.723510410000003</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
@@ -4743,8 +5529,14 @@
       <c r="D131" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131">
+        <v>38.960250000000002</v>
+      </c>
+      <c r="F131">
+        <v>-76.925972220000006</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
@@ -4757,8 +5549,14 @@
       <c r="D132" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>33.283449769999997</v>
+      </c>
+      <c r="F132">
+        <v>-96.892780500000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
@@ -4771,8 +5569,14 @@
       <c r="D133" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133">
+        <v>43.030501729999997</v>
+      </c>
+      <c r="F133">
+        <v>-109.7701526</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
@@ -4785,8 +5589,14 @@
       <c r="D134" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>47.959268369999997</v>
+      </c>
+      <c r="F134">
+        <v>-121.7973447</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
@@ -4799,8 +5609,14 @@
       <c r="D135" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>41.157001270000002</v>
+      </c>
+      <c r="F135">
+        <v>-81.071762100000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
@@ -4813,8 +5629,14 @@
       <c r="D136" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136">
+        <v>39.618889000000003</v>
+      </c>
+      <c r="F136">
+        <v>-76.690306000000007</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
@@ -4827,8 +5649,14 @@
       <c r="D137" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137">
+        <v>47.417047150000002</v>
+      </c>
+      <c r="F137">
+        <v>-121.79205399999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
@@ -4841,8 +5669,14 @@
       <c r="D138" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138">
+        <v>33.819444439999998</v>
+      </c>
+      <c r="F138">
+        <v>-84.407777780000004</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
@@ -4855,8 +5689,14 @@
       <c r="D139" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>39.127052419999998</v>
+      </c>
+      <c r="F139">
+        <v>-79.468385159999997</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
@@ -4869,8 +5709,14 @@
       <c r="D140" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140">
+        <v>40.836175609999998</v>
+      </c>
+      <c r="F140">
+        <v>-79.110035640000007</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
@@ -4883,8 +5729,14 @@
       <c r="D141" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>37.493611000000001</v>
+      </c>
+      <c r="F141">
+        <v>-90.838333000000006</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
@@ -4897,8 +5749,14 @@
       <c r="D142" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142">
+        <v>44.162348190000003</v>
+      </c>
+      <c r="F142">
+        <v>-122.3331192</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
@@ -4911,8 +5769,14 @@
       <c r="D143" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143">
+        <v>34.285377570000001</v>
+      </c>
+      <c r="F143">
+        <v>-87.398908379999995</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
@@ -4925,8 +5789,14 @@
       <c r="D144" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144">
+        <v>47.907323560000002</v>
+      </c>
+      <c r="F144">
+        <v>-121.8153994</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
@@ -4939,8 +5809,14 @@
       <c r="D145" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>41.299778979999999</v>
+      </c>
+      <c r="F145">
+        <v>-80.758414099999996</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
@@ -4953,8 +5829,14 @@
       <c r="D146" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>45.350406200000002</v>
+      </c>
+      <c r="F146">
+        <v>-119.5500218</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
@@ -4967,8 +5849,14 @@
       <c r="D147" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147">
+        <v>28.332787379999999</v>
+      </c>
+      <c r="F147">
+        <v>-81.579796040000005</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
@@ -4981,8 +5869,14 @@
       <c r="D148" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>44.540123569999999</v>
+      </c>
+      <c r="F148">
+        <v>-122.43591549999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
@@ -4995,8 +5889,14 @@
       <c r="D149" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149">
+        <v>39.004527779999997</v>
+      </c>
+      <c r="F149">
+        <v>-80.473361100000005</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
@@ -5009,8 +5909,14 @@
       <c r="D150" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>43.014805279999997</v>
+      </c>
+      <c r="F150">
+        <v>-71.641461390000003</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
@@ -5023,8 +5929,14 @@
       <c r="D151" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151">
+        <v>41.552321239999998</v>
+      </c>
+      <c r="F151">
+        <v>-72.449252869999995</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
@@ -5037,8 +5949,14 @@
       <c r="D152" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152">
+        <v>48.905957389999998</v>
+      </c>
+      <c r="F152">
+        <v>-121.8443104</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
@@ -5051,8 +5969,14 @@
       <c r="D153" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153">
+        <v>44.752621789999999</v>
+      </c>
+      <c r="F153">
+        <v>-122.12896480000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
@@ -5065,8 +5989,14 @@
       <c r="D154" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>43.720677850000001</v>
+      </c>
+      <c r="F154">
+        <v>-123.0497994</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
@@ -5079,8 +6009,14 @@
       <c r="D155" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155">
+        <v>39.502749999999999</v>
+      </c>
+      <c r="F155">
+        <v>-79.123972219999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
@@ -5093,8 +6029,14 @@
       <c r="D156" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>40.870780000000003</v>
+      </c>
+      <c r="F156">
+        <v>-111.585204</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
@@ -5107,8 +6049,14 @@
       <c r="D157" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>32.97570924</v>
+      </c>
+      <c r="F157">
+        <v>-82.609853979999997</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
@@ -5121,8 +6069,14 @@
       <c r="D158" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>44.898031000000003</v>
+      </c>
+      <c r="F158">
+        <v>-88.844273000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
@@ -5135,8 +6089,14 @@
       <c r="D159" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159">
+        <v>36.05397</v>
+      </c>
+      <c r="F159">
+        <v>-94.083259999999996</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
@@ -5149,8 +6109,14 @@
       <c r="D160" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160">
+        <v>35.685833330000001</v>
+      </c>
+      <c r="F160">
+        <v>-82.060277780000007</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
@@ -5163,8 +6129,14 @@
       <c r="D161" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161">
+        <v>46.171340999999998</v>
+      </c>
+      <c r="F161">
+        <v>-91.329350000000005</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
@@ -5177,8 +6149,14 @@
       <c r="D162" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>43.458333000000003</v>
+      </c>
+      <c r="F162">
+        <v>-110.796111</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
@@ -5191,8 +6169,14 @@
       <c r="D163" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>35.523055560000003</v>
+      </c>
+      <c r="F163">
+        <v>-82.846666670000005</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
@@ -5205,8 +6189,14 @@
       <c r="D164" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>42.67873642</v>
+      </c>
+      <c r="F164">
+        <v>-122.7419867</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
@@ -5219,8 +6209,14 @@
       <c r="D165" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>47.379545999999998</v>
+      </c>
+      <c r="F165">
+        <v>-121.983448</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
@@ -5233,8 +6229,14 @@
       <c r="D166" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166">
+        <v>41.475899400000003</v>
+      </c>
+      <c r="F166">
+        <v>-77.825825129999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
@@ -5247,8 +6249,14 @@
       <c r="D167" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167">
+        <v>45.763569699999998</v>
+      </c>
+      <c r="F167">
+        <v>-88.463178499999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
@@ -5261,8 +6269,14 @@
       <c r="D168" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168">
+        <v>43.145062760000002</v>
+      </c>
+      <c r="F168">
+        <v>-77.511941710000002</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
@@ -5275,8 +6289,14 @@
       <c r="D169" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>37.540491000000003</v>
+      </c>
+      <c r="F169">
+        <v>-121.856345</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
@@ -5289,8 +6309,14 @@
       <c r="D170" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170">
+        <v>40.939231049999997</v>
+      </c>
+      <c r="F170">
+        <v>-79.008367379999996</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
@@ -5303,8 +6329,14 @@
       <c r="D171" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>46.180300559999999</v>
+      </c>
+      <c r="F171">
+        <v>-112.78594889999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
@@ -5317,8 +6349,14 @@
       <c r="D172" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>44.047067040000002</v>
+      </c>
+      <c r="F172">
+        <v>-122.21782450000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
@@ -5331,8 +6369,14 @@
       <c r="D173" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173">
+        <v>33.772885000000002</v>
+      </c>
+      <c r="F173">
+        <v>-84.058248000000006</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
@@ -5345,8 +6389,14 @@
       <c r="D174" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174">
+        <v>36.322581</v>
+      </c>
+      <c r="F174">
+        <v>-94.685224000000005</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
@@ -5359,8 +6409,14 @@
       <c r="D175" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175">
+        <v>41.638064</v>
+      </c>
+      <c r="F175">
+        <v>-74.616883000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
@@ -5373,8 +6429,14 @@
       <c r="D176" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>47.482599929999999</v>
+      </c>
+      <c r="F176">
+        <v>-122.20345469999999</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
@@ -5387,8 +6449,14 @@
       <c r="D177" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177">
+        <v>44.391792250000002</v>
+      </c>
+      <c r="F177">
+        <v>-122.4975817</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
@@ -5401,8 +6469,14 @@
       <c r="D178" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178">
+        <v>43.252617899999997</v>
+      </c>
+      <c r="F178">
+        <v>-123.0261716</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
@@ -5415,8 +6489,14 @@
       <c r="D179" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179">
+        <v>39.923130559999997</v>
+      </c>
+      <c r="F179">
+        <v>-80.072557959999997</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
@@ -5429,8 +6509,14 @@
       <c r="D180" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180">
+        <v>42.372259010000001</v>
+      </c>
+      <c r="F180">
+        <v>-83.25548465</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
@@ -5443,8 +6529,14 @@
       <c r="D181" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>35.461388890000002</v>
+      </c>
+      <c r="F181">
+        <v>-83.353611110000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
@@ -5457,8 +6549,14 @@
       <c r="D182" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>39.100560909999999</v>
+      </c>
+      <c r="F182">
+        <v>-94.300503849999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
@@ -5471,8 +6569,14 @@
       <c r="D183" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>33.640115539999996</v>
+      </c>
+      <c r="F183">
+        <v>-83.779067409999996</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>183</v>
       </c>
@@ -5485,8 +6589,14 @@
       <c r="D184" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>43.944292990000001</v>
+      </c>
+      <c r="F184">
+        <v>-122.774794</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>184</v>
       </c>
@@ -5499,8 +6609,14 @@
       <c r="D185" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185">
+        <v>42.014258769999998</v>
+      </c>
+      <c r="F185">
+        <v>-74.270702689999993</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>185</v>
       </c>
@@ -5513,8 +6629,14 @@
       <c r="D186" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186">
+        <v>40.654787499999998</v>
+      </c>
+      <c r="F186">
+        <v>-79.348651140000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>186</v>
       </c>
@@ -5527,8 +6649,14 @@
       <c r="D187" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>40.473401699999997</v>
+      </c>
+      <c r="F187">
+        <v>-79.183367469999993</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>187</v>
       </c>
@@ -5541,8 +6669,14 @@
       <c r="D188" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188">
+        <v>41.461481089999999</v>
+      </c>
+      <c r="F188">
+        <v>-74.758774599999995</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>188</v>
       </c>
@@ -5555,8 +6689,14 @@
       <c r="D189" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>41.486172689999997</v>
+      </c>
+      <c r="F189">
+        <v>-78.678359459999996</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>189</v>
       </c>
@@ -5569,8 +6709,14 @@
       <c r="D190" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190">
+        <v>42.790833329999998</v>
+      </c>
+      <c r="F190">
+        <v>-118.86750000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>190</v>
       </c>
@@ -5583,8 +6729,14 @@
       <c r="D191" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191">
+        <v>35.438333</v>
+      </c>
+      <c r="F191">
+        <v>-83.918888999999993</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>191</v>
       </c>
@@ -5597,8 +6749,14 @@
       <c r="D192" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>44.135958170000002</v>
+      </c>
+      <c r="F192">
+        <v>-122.248391</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>192</v>
       </c>
@@ -5611,8 +6769,14 @@
       <c r="D193" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>43.7359565</v>
+      </c>
+      <c r="F193">
+        <v>-122.8734019</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>193</v>
       </c>
@@ -5625,8 +6789,14 @@
       <c r="D194" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>44.706788539999998</v>
+      </c>
+      <c r="F194">
+        <v>-122.1011859</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>194</v>
       </c>
@@ -5639,8 +6809,14 @@
       <c r="D195" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>42.0637361</v>
+      </c>
+      <c r="F195">
+        <v>-123.1114358</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>195</v>
       </c>
@@ -5653,8 +6829,14 @@
       <c r="D196" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196">
+        <v>33.369276999999997</v>
+      </c>
+      <c r="F196">
+        <v>-86.784154999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>196</v>
       </c>
@@ -5667,8 +6849,14 @@
       <c r="D197" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197">
+        <v>41.602005990000002</v>
+      </c>
+      <c r="F197">
+        <v>-79.050039229999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>197</v>
       </c>
@@ -5681,8 +6869,14 @@
       <c r="D198" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198">
+        <v>33.772884660000003</v>
+      </c>
+      <c r="F198">
+        <v>-84.614655589999998</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>198</v>
       </c>
@@ -5695,8 +6889,14 @@
       <c r="D199" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>45.619866940000001</v>
+      </c>
+      <c r="F199">
+        <v>-117.72658920000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>199</v>
       </c>
@@ -5709,8 +6909,14 @@
       <c r="D200" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>41.946477080000001</v>
+      </c>
+      <c r="F200">
+        <v>-74.979608639999995</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>200</v>
       </c>
@@ -5723,8 +6929,14 @@
       <c r="D201" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>44.19334009</v>
+      </c>
+      <c r="F201">
+        <v>-85.769786319999994</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>201</v>
       </c>
@@ -5737,8 +6949,14 @@
       <c r="D202" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>41.048391199999998</v>
+      </c>
+      <c r="F202">
+        <v>-81.001203200000006</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>202</v>
       </c>
@@ -5751,8 +6969,14 @@
       <c r="D203" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>37.436257650000002</v>
+      </c>
+      <c r="F203">
+        <v>-77.060802710000004</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>203</v>
       </c>
@@ -5765,8 +6989,14 @@
       <c r="D204" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204">
+        <v>41.81867578</v>
+      </c>
+      <c r="F204">
+        <v>-78.292791289999997</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>204</v>
       </c>
@@ -5779,8 +7009,14 @@
       <c r="D205" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205">
+        <v>45.040323600000001</v>
+      </c>
+      <c r="F205">
+        <v>-71.4439706</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>205</v>
       </c>
@@ -5793,8 +7029,14 @@
       <c r="D206" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>44.123456570000002</v>
+      </c>
+      <c r="F206">
+        <v>-123.2998173</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>206</v>
       </c>
@@ -5807,8 +7049,14 @@
       <c r="D207" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207">
+        <v>37.974767999999997</v>
+      </c>
+      <c r="F207">
+        <v>-91.204583999999997</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>207</v>
       </c>
@@ -5821,8 +7069,14 @@
       <c r="D208" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208">
+        <v>42.5625</v>
+      </c>
+      <c r="F208">
+        <v>-114.494722</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>208</v>
       </c>
@@ -5835,8 +7089,14 @@
       <c r="D209" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>41.381990010000003</v>
+      </c>
+      <c r="F209">
+        <v>-82.316827279999998</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>209</v>
       </c>
@@ -5849,8 +7109,14 @@
       <c r="D210" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210">
+        <v>39.445111109999999</v>
+      </c>
+      <c r="F210">
+        <v>-79.110805560000003</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>210</v>
       </c>
@@ -5863,8 +7129,14 @@
       <c r="D211" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>43.792901239999999</v>
+      </c>
+      <c r="F211">
+        <v>-122.9914655</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>211</v>
       </c>
@@ -5877,8 +7149,14 @@
       <c r="D212" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212">
+        <v>47.922674899999997</v>
+      </c>
+      <c r="F212">
+        <v>-91.535126000000005</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>212</v>
       </c>
@@ -5891,8 +7169,14 @@
       <c r="D213" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>41.13144613</v>
+      </c>
+      <c r="F213">
+        <v>-80.971201829999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>213</v>
       </c>
@@ -5905,8 +7189,14 @@
       <c r="D214" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214">
+        <v>40.72034223</v>
+      </c>
+      <c r="F214">
+        <v>-79.511433240000002</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>214</v>
       </c>
@@ -5919,8 +7209,14 @@
       <c r="D215" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215">
+        <v>41.476200230000003</v>
+      </c>
+      <c r="F215">
+        <v>-75.172118569999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>215</v>
       </c>
@@ -5933,8 +7229,14 @@
       <c r="D216" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216">
+        <v>40.458888889999997</v>
+      </c>
+      <c r="F216">
+        <v>-79.449444400000004</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>216</v>
       </c>
@@ -5947,8 +7249,14 @@
       <c r="D217" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217">
+        <v>39.869832799999998</v>
+      </c>
+      <c r="F217">
+        <v>-75.593262330000002</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>217</v>
       </c>
@@ -5961,8 +7269,14 @@
       <c r="D218" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218">
+        <v>39.65361111</v>
+      </c>
+      <c r="F218">
+        <v>-79.408305560000002</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>218</v>
       </c>
@@ -5975,8 +7289,14 @@
       <c r="D219" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219">
+        <v>44.626227499999999</v>
+      </c>
+      <c r="F219">
+        <v>-121.48394330000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>219</v>
       </c>
@@ -5989,8 +7309,14 @@
       <c r="D220" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220">
+        <v>39.769416669999998</v>
+      </c>
+      <c r="F220">
+        <v>-75.573277779999998</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>220</v>
       </c>
@@ -6003,8 +7329,14 @@
       <c r="D221" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>44.072520310000002</v>
+      </c>
+      <c r="F221">
+        <v>-84.019993920000005</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>221</v>
       </c>
@@ -6017,8 +7349,14 @@
       <c r="D222" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>41.353666339999997</v>
+      </c>
+      <c r="F222">
+        <v>-80.397845329999996</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>222</v>
       </c>
@@ -6031,8 +7369,14 @@
       <c r="D223" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223">
+        <v>40.927565319999999</v>
+      </c>
+      <c r="F223">
+        <v>-79.291150830000007</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>223</v>
       </c>
@@ -6045,8 +7389,14 @@
       <c r="D224" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>40.817009200000001</v>
+      </c>
+      <c r="F224">
+        <v>-80.242283709999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>224</v>
       </c>
@@ -6059,8 +7409,14 @@
       <c r="D225" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225">
+        <v>43.430858000000001</v>
+      </c>
+      <c r="F225">
+        <v>-85.595599000000007</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>225</v>
       </c>
@@ -6073,8 +7429,14 @@
       <c r="D226" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>42.730405189999999</v>
+      </c>
+      <c r="F226">
+        <v>-122.5164248</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>226</v>
       </c>
@@ -6087,8 +7449,14 @@
       <c r="D227" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227">
+        <v>30.145493200000001</v>
+      </c>
+      <c r="F227">
+        <v>-95.124375630000003</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>227</v>
       </c>
@@ -6101,8 +7469,14 @@
       <c r="D228" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228">
+        <v>39.85979992</v>
+      </c>
+      <c r="F228">
+        <v>-79.227531159999998</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>228</v>
       </c>
@@ -6115,8 +7489,14 @@
       <c r="D229" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>43.722067680000002</v>
+      </c>
+      <c r="F229">
+        <v>-122.438659</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>229</v>
       </c>
@@ -6129,8 +7509,14 @@
       <c r="D230" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230">
+        <v>41.380323679999997</v>
+      </c>
+      <c r="F230">
+        <v>-82.104592789999998</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>230</v>
       </c>
@@ -6143,8 +7529,14 @@
       <c r="D231" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>37.626599149999997</v>
+      </c>
+      <c r="F231">
+        <v>-121.8830126</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>231</v>
       </c>
@@ -6157,8 +7549,14 @@
       <c r="D232" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232">
+        <v>33.866388890000003</v>
+      </c>
+      <c r="F232">
+        <v>-91.656111109999998</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>232</v>
       </c>
@@ -6171,8 +7569,14 @@
       <c r="D233" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233">
+        <v>39.805354850000001</v>
+      </c>
+      <c r="F233">
+        <v>-79.364201870000002</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>233</v>
       </c>
@@ -6185,8 +7589,14 @@
       <c r="D234" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234">
+        <v>44.656872200000002</v>
+      </c>
+      <c r="F234">
+        <v>-111.0682742</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>234</v>
       </c>
@@ -6199,8 +7609,14 @@
       <c r="D235" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235">
+        <v>42.463950009999998</v>
+      </c>
+      <c r="F235">
+        <v>-78.935034700000003</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>235</v>
       </c>
@@ -6213,8 +7629,14 @@
       <c r="D236" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236">
+        <v>41.95257385</v>
+      </c>
+      <c r="F236">
+        <v>-77.115248559999998</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>236</v>
       </c>
@@ -6227,8 +7649,14 @@
       <c r="D237" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237">
+        <v>34.509303920000001</v>
+      </c>
+      <c r="F237">
+        <v>-81.598159429999995</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>237</v>
       </c>
@@ -6241,8 +7669,14 @@
       <c r="D238" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238">
+        <v>40.870593059999997</v>
+      </c>
+      <c r="F238">
+        <v>-87.306691169999993</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>238</v>
       </c>
@@ -6255,8 +7689,14 @@
       <c r="D239" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239">
+        <v>44.752621939999997</v>
+      </c>
+      <c r="F239">
+        <v>-122.298412</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>239</v>
       </c>
@@ -6269,8 +7709,14 @@
       <c r="D240" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>42.074805910000002</v>
+      </c>
+      <c r="F240">
+        <v>-75.396009449999994</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>240</v>
       </c>
@@ -6283,8 +7729,14 @@
       <c r="D241" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241">
+        <v>42.02480929</v>
+      </c>
+      <c r="F241">
+        <v>-75.119889869999994</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>241</v>
       </c>
@@ -6297,8 +7749,14 @@
       <c r="D242" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>43.295954270000003</v>
+      </c>
+      <c r="F242">
+        <v>-122.5367127</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>242</v>
       </c>
@@ -6311,8 +7769,14 @@
       <c r="D243" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243">
+        <v>41.478951109999997</v>
+      </c>
+      <c r="F243">
+        <v>-79.445879599999998</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>243</v>
       </c>
@@ -6325,8 +7789,14 @@
       <c r="D244" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244">
+        <v>42.241511299999999</v>
+      </c>
+      <c r="F244">
+        <v>-123.14004850000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>244</v>
       </c>
@@ -6339,8 +7809,14 @@
       <c r="D245" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245">
+        <v>40.555</v>
+      </c>
+      <c r="F245">
+        <v>-74.583611099999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>245</v>
       </c>
@@ -6353,8 +7829,14 @@
       <c r="D246" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246">
+        <v>34.573049159999997</v>
+      </c>
+      <c r="F246">
+        <v>-117.32060180000001</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>246</v>
       </c>
@@ -6367,8 +7849,14 @@
       <c r="D247" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247">
+        <v>38.290944940000003</v>
+      </c>
+      <c r="F247">
+        <v>-80.640924209999994</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>247</v>
       </c>
@@ -6381,8 +7869,14 @@
       <c r="D248" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248">
+        <v>41.400042339999999</v>
+      </c>
+      <c r="F248">
+        <v>-86.701129159999994</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>248</v>
       </c>
@@ -6395,8 +7889,14 @@
       <c r="D249" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>36.944829519999999</v>
+      </c>
+      <c r="F249">
+        <v>-82.154856929999994</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>249</v>
       </c>
@@ -6409,8 +7909,14 @@
       <c r="D250" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>44.412346820000003</v>
+      </c>
+      <c r="F250">
+        <v>-122.6886956</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>250</v>
       </c>
@@ -6423,8 +7929,14 @@
       <c r="D251" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>29.921907319999999</v>
+      </c>
+      <c r="F251">
+        <v>-82.426224610000006</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>251</v>
       </c>
@@ -6437,8 +7949,14 @@
       <c r="D252" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>41.239223350000003</v>
+      </c>
+      <c r="F252">
+        <v>-80.880641969999999</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>252</v>
       </c>
@@ -6451,8 +7969,14 @@
       <c r="D253" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253">
+        <v>41.266166820000002</v>
+      </c>
+      <c r="F253">
+        <v>-80.472569710000002</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>253</v>
       </c>
@@ -6465,8 +7989,14 @@
       <c r="D254" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>48.841782000000002</v>
+      </c>
+      <c r="F254">
+        <v>-122.294326</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>254</v>
       </c>
@@ -6479,8 +8009,14 @@
       <c r="D255" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>41.475923000000002</v>
+      </c>
+      <c r="F255">
+        <v>-75.036281000000002</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>255</v>
       </c>
@@ -6493,8 +8029,14 @@
       <c r="D256" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>42.003140170000002</v>
+      </c>
+      <c r="F256">
+        <v>-75.383508140000004</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>256</v>
       </c>
@@ -6507,8 +8049,14 @@
       <c r="D257" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>39.704999999999998</v>
+      </c>
+      <c r="F257">
+        <v>-106.72583299999999</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>257</v>
       </c>
@@ -6521,8 +8069,14 @@
       <c r="D258" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>32.732897170000001</v>
+      </c>
+      <c r="F258">
+        <v>-99.140629919999995</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>258</v>
       </c>
@@ -6535,8 +8089,14 @@
       <c r="D259" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>46.486614420000002</v>
+      </c>
+      <c r="F259">
+        <v>-90.696296959999998</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>259</v>
       </c>
@@ -6549,8 +8109,14 @@
       <c r="D260" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260">
+        <v>37.587156790000002</v>
+      </c>
+      <c r="F260">
+        <v>-121.960793</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>260</v>
       </c>
@@ -6563,8 +8129,14 @@
       <c r="D261" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>44.927715669999998</v>
+      </c>
+      <c r="F261">
+        <v>-110.39380989999999</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>261</v>
       </c>
@@ -6577,8 +8149,14 @@
       <c r="D262" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262">
+        <v>39.582315800000003</v>
+      </c>
+      <c r="F262">
+        <v>-78.309731170000006</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>262</v>
       </c>
@@ -6591,8 +8169,14 @@
       <c r="D263" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263">
+        <v>45.299843459999998</v>
+      </c>
+      <c r="F263">
+        <v>-122.3539746</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>263</v>
       </c>
@@ -6605,8 +8189,14 @@
       <c r="D264" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>42.354005809999997</v>
+      </c>
+      <c r="F264">
+        <v>-123.4067276</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>264</v>
       </c>
@@ -6619,8 +8209,14 @@
       <c r="D265" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265">
+        <v>39.122883530000003</v>
+      </c>
+      <c r="F265">
+        <v>-79.681174089999999</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>265</v>
       </c>
@@ -6633,8 +8229,14 @@
       <c r="D266" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>42.595867429999998</v>
+      </c>
+      <c r="F266">
+        <v>-82.908809980000001</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>266</v>
       </c>
@@ -6647,8 +8249,14 @@
       <c r="D267" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267">
+        <v>44.707900000000002</v>
+      </c>
+      <c r="F267">
+        <v>-122.97287</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>267</v>
       </c>
@@ -6661,8 +8269,14 @@
       <c r="D268" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268">
+        <v>48.844832490000002</v>
+      </c>
+      <c r="F268">
+        <v>-122.5893389</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>268</v>
       </c>
@@ -6675,8 +8289,14 @@
       <c r="D269" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269">
+        <v>34.535416329999997</v>
+      </c>
+      <c r="F269">
+        <v>-81.548157959999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>269</v>
       </c>
@@ -6689,8 +8309,14 @@
       <c r="D270" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270">
+        <v>39.422308180000002</v>
+      </c>
+      <c r="F270">
+        <v>-80.275918669999996</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>270</v>
       </c>
@@ -6703,8 +8329,14 @@
       <c r="D271" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271">
+        <v>41.973142770000003</v>
+      </c>
+      <c r="F271">
+        <v>-75.17405814</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>271</v>
       </c>
@@ -6717,8 +8349,14 @@
       <c r="D272" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272">
+        <v>30.24465738</v>
+      </c>
+      <c r="F272">
+        <v>-95.457161630000002</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>272</v>
       </c>
@@ -6731,8 +8369,14 @@
       <c r="D273" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273">
+        <v>38.338983089999999</v>
+      </c>
+      <c r="F273">
+        <v>-81.841517960000004</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>273</v>
       </c>
@@ -6745,8 +8389,14 @@
       <c r="D274" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274">
+        <v>44.436392390000002</v>
+      </c>
+      <c r="F274">
+        <v>-85.698679240000004</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>274</v>
       </c>
@@ -6759,8 +8409,14 @@
       <c r="D275" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275">
+        <v>36.27842528</v>
+      </c>
+      <c r="F275">
+        <v>-95.954162199999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>275</v>
       </c>
@@ -6773,8 +8429,14 @@
       <c r="D276" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276">
+        <v>39.150375449999999</v>
+      </c>
+      <c r="F276">
+        <v>-80.038691040000003</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>276</v>
       </c>
@@ -6787,8 +8449,14 @@
       <c r="D277" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277">
+        <v>44.124848739999997</v>
+      </c>
+      <c r="F277">
+        <v>-122.47062</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>277</v>
       </c>
@@ -6801,8 +8469,14 @@
       <c r="D278" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278">
+        <v>38.287780130000002</v>
+      </c>
+      <c r="F278">
+        <v>-104.6010849</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>278</v>
       </c>
@@ -6815,8 +8489,14 @@
       <c r="D279" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279">
+        <v>43.801235169999998</v>
+      </c>
+      <c r="F279">
+        <v>-122.5608879</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>279</v>
       </c>
@@ -6829,8 +8509,14 @@
       <c r="D280" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280">
+        <v>44.866592779999998</v>
+      </c>
+      <c r="F280">
+        <v>-111.33828800000001</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>280</v>
       </c>
@@ -6843,8 +8529,14 @@
       <c r="D281" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281">
+        <v>45.379286999999998</v>
+      </c>
+      <c r="F281">
+        <v>-122.577313</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>281</v>
       </c>
@@ -6857,8 +8549,14 @@
       <c r="D282" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282">
+        <v>42.655403540000002</v>
+      </c>
+      <c r="F282">
+        <v>-122.7150408</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>282</v>
       </c>
@@ -6871,8 +8569,14 @@
       <c r="D283" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283">
+        <v>35.608888890000003</v>
+      </c>
+      <c r="F283">
+        <v>-82.578055559999996</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>283</v>
       </c>
@@ -6885,8 +8589,14 @@
       <c r="D284" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284">
+        <v>41.273683009999999</v>
+      </c>
+      <c r="F284">
+        <v>-77.324140279999995</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>284</v>
       </c>
@@ -6899,8 +8609,14 @@
       <c r="D285" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285">
+        <v>37.20414942</v>
+      </c>
+      <c r="F285">
+        <v>-113.18077890000001</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>285</v>
       </c>
@@ -6913,8 +8629,14 @@
       <c r="D286" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286">
+        <v>37.85159385</v>
+      </c>
+      <c r="F286">
+        <v>-120.6379816</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>286</v>
       </c>
@@ -6927,8 +8649,14 @@
       <c r="D287" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287">
+        <v>44.363059999999997</v>
+      </c>
+      <c r="F287">
+        <v>-85.820904999999996</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>287</v>
       </c>
@@ -6941,8 +8669,14 @@
       <c r="D288" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288">
+        <v>29.848847689999999</v>
+      </c>
+      <c r="F288">
+        <v>-82.715120369999994</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>288</v>
       </c>
@@ -6955,8 +8689,14 @@
       <c r="D289" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289">
+        <v>43.945681499999999</v>
+      </c>
+      <c r="F289">
+        <v>-122.8372967</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>289</v>
       </c>
@@ -6969,8 +8709,14 @@
       <c r="D290" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290">
+        <v>39.827576739999998</v>
+      </c>
+      <c r="F290">
+        <v>-79.372535339999999</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>290</v>
       </c>
@@ -6983,8 +8729,14 @@
       <c r="D291" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291">
+        <v>34.156944439999997</v>
+      </c>
+      <c r="F291">
+        <v>-84.078888890000002</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>291</v>
       </c>
@@ -6997,8 +8749,14 @@
       <c r="D292" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292">
+        <v>41.960600839999998</v>
+      </c>
+      <c r="F292">
+        <v>-83.531046189999998</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>292</v>
       </c>
@@ -7011,8 +8769,14 @@
       <c r="D293" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293">
+        <v>41.03672598</v>
+      </c>
+      <c r="F293">
+        <v>-80.536181499999998</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>293</v>
       </c>
@@ -7025,8 +8789,14 @@
       <c r="D294" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294">
+        <v>39.517616670000002</v>
+      </c>
+      <c r="F294">
+        <v>-119.7416444</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>294</v>
       </c>
@@ -7039,8 +8809,14 @@
       <c r="D295" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295">
+        <v>37.72965078</v>
+      </c>
+      <c r="F295">
+        <v>-121.1104934</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>295</v>
       </c>
@@ -7053,8 +8829,14 @@
       <c r="D296" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296">
+        <v>44.676958999999997</v>
+      </c>
+      <c r="F296">
+        <v>-84.292514999999995</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>296</v>
       </c>
@@ -7067,8 +8849,14 @@
       <c r="D297" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297">
+        <v>38.741928459999997</v>
+      </c>
+      <c r="F297">
+        <v>-108.08090319999999</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>297</v>
       </c>
@@ -7081,8 +8869,14 @@
       <c r="D298" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298">
+        <v>34.16315298</v>
+      </c>
+      <c r="F298">
+        <v>-84.741047420000001</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>298</v>
       </c>
@@ -7095,8 +8889,14 @@
       <c r="D299" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299">
+        <v>33.912671899999999</v>
+      </c>
+      <c r="F299">
+        <v>-78.715017459999999</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>299</v>
       </c>
@@ -7109,8 +8909,14 @@
       <c r="D300" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300">
+        <v>44.071237000000004</v>
+      </c>
+      <c r="F300">
+        <v>-122.964527</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>300</v>
       </c>
@@ -7123,8 +8929,14 @@
       <c r="D301" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301">
+        <v>44.889369000000002</v>
+      </c>
+      <c r="F301">
+        <v>-111.580243</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>301</v>
       </c>
@@ -7137,8 +8949,14 @@
       <c r="D302" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302">
+        <v>33.997222219999998</v>
+      </c>
+      <c r="F302">
+        <v>-84.201944440000005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>302</v>
       </c>
@@ -7151,8 +8969,14 @@
       <c r="D303" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303">
+        <v>39.31981459</v>
+      </c>
+      <c r="F303">
+        <v>-80.025077940000003</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>303</v>
       </c>
@@ -7165,8 +8989,14 @@
       <c r="D304" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304">
+        <v>42.524847110000003</v>
+      </c>
+      <c r="F304">
+        <v>-122.8428203</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>304</v>
       </c>
@@ -7179,8 +9009,14 @@
       <c r="D305" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305">
+        <v>42.567165979999999</v>
+      </c>
+      <c r="F305">
+        <v>-109.930151</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>305</v>
       </c>
@@ -7193,8 +9029,14 @@
       <c r="D306" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306">
+        <v>46.840465629999997</v>
+      </c>
+      <c r="F306">
+        <v>-115.6207033</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
         <v>306</v>
       </c>
@@ -7207,8 +9049,14 @@
       <c r="D307" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307">
+        <v>28.369728370000001</v>
+      </c>
+      <c r="F307">
+        <v>-80.872557799999996</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>307</v>
       </c>
@@ -7221,8 +9069,14 @@
       <c r="D308" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308">
+        <v>29.264127609999999</v>
+      </c>
+      <c r="F308">
+        <v>-98.490849330000003</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>308</v>
       </c>
@@ -7235,8 +9089,14 @@
       <c r="D309" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309">
+        <v>38.508523359999998</v>
+      </c>
+      <c r="F309">
+        <v>-122.9277737</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>309</v>
       </c>
@@ -7249,8 +9109,14 @@
       <c r="D310" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310">
+        <v>43.99818166</v>
+      </c>
+      <c r="F310">
+        <v>-122.90591259999999</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
         <v>310</v>
       </c>
@@ -7263,8 +9129,14 @@
       <c r="D311" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311">
+        <v>39.435086609999999</v>
+      </c>
+      <c r="F311">
+        <v>-80.132578870000003</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>311</v>
       </c>
@@ -7277,8 +9149,14 @@
       <c r="D312" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312">
+        <v>43.272059970000001</v>
+      </c>
+      <c r="F312">
+        <v>-123.4122993</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>312</v>
       </c>
@@ -7291,8 +9169,14 @@
       <c r="D313" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313">
+        <v>44.660013849999999</v>
+      </c>
+      <c r="F313">
+        <v>-84.131116739999996</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>313</v>
       </c>
@@ -7305,8 +9189,14 @@
       <c r="D314" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314">
+        <v>40.454511709999998</v>
+      </c>
+      <c r="F314">
+        <v>-79.390872369999997</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>314</v>
       </c>
@@ -7319,8 +9209,14 @@
       <c r="D315" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315">
+        <v>37.724287439999998</v>
+      </c>
+      <c r="F315">
+        <v>-80.641468059999994</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>315</v>
       </c>
@@ -7333,8 +9229,14 @@
       <c r="D316" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316">
+        <v>44.259450000000001</v>
+      </c>
+      <c r="F316">
+        <v>-85.941742000000005</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
         <v>316</v>
       </c>
@@ -7347,8 +9249,14 @@
       <c r="D317" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317">
+        <v>30.704100619999998</v>
+      </c>
+      <c r="F317">
+        <v>-83.03319553</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
         <v>317</v>
       </c>
@@ -7361,8 +9269,14 @@
       <c r="D318" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318">
+        <v>33.829892999999998</v>
+      </c>
+      <c r="F318">
+        <v>-79.043647000000007</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
         <v>318</v>
       </c>
@@ -7375,8 +9289,14 @@
       <c r="D319" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319">
+        <v>33.85916667</v>
+      </c>
+      <c r="F319">
+        <v>-84.454444440000003</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>319</v>
       </c>
@@ -7389,8 +9309,14 @@
       <c r="D320" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320">
+        <v>39.447038790000001</v>
+      </c>
+      <c r="F320">
+        <v>-78.65418167</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>320</v>
       </c>
@@ -7403,8 +9329,14 @@
       <c r="D321" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321">
+        <v>41.117559059999998</v>
+      </c>
+      <c r="F321">
+        <v>-78.108896009999995</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>321</v>
       </c>
@@ -7417,8 +9349,14 @@
       <c r="D322" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322">
+        <v>44.612777999999999</v>
+      </c>
+      <c r="F322">
+        <v>-83.837778</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>322</v>
       </c>
@@ -7431,8 +9369,14 @@
       <c r="D323" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323">
+        <v>29.911621</v>
+      </c>
+      <c r="F323">
+        <v>-82.860403000000005</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>323</v>
       </c>
@@ -7445,8 +9389,14 @@
       <c r="D324" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324">
+        <v>47.907783000000002</v>
+      </c>
+      <c r="F324">
+        <v>-99.416241999999997</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>324</v>
       </c>
@@ -7459,8 +9409,14 @@
       <c r="D325" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325">
+        <v>41.867310000000003</v>
+      </c>
+      <c r="F325">
+        <v>-75.213783000000006</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>325</v>
       </c>
@@ -7473,8 +9429,14 @@
       <c r="D326" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326">
+        <v>42.58458091</v>
+      </c>
+      <c r="F326">
+        <v>-121.8497366</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>326</v>
       </c>
@@ -7487,8 +9449,14 @@
       <c r="D327" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327">
+        <v>39.584634479999998</v>
+      </c>
+      <c r="F327">
+        <v>-119.4412872</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>327</v>
       </c>
@@ -7501,8 +9469,14 @@
       <c r="D328" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328">
+        <v>44.560847000000003</v>
+      </c>
+      <c r="F328">
+        <v>-83.802763999999996</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>328</v>
       </c>
@@ -7515,8 +9489,14 @@
       <c r="D329" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329">
+        <v>42.156452250000001</v>
+      </c>
+      <c r="F329">
+        <v>-78.715308840000006</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>329</v>
       </c>
@@ -7529,8 +9509,14 @@
       <c r="D330" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330">
+        <v>35.573151099999997</v>
+      </c>
+      <c r="F330">
+        <v>-95.068845800000005</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>330</v>
       </c>
@@ -7543,8 +9529,14 @@
       <c r="D331" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331">
+        <v>38.858308119999997</v>
+      </c>
+      <c r="F331">
+        <v>-110.37014689999999</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>331</v>
       </c>
@@ -7557,8 +9549,14 @@
       <c r="D332" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332">
+        <v>48.356630799999998</v>
+      </c>
+      <c r="F332">
+        <v>-114.03761799999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>332</v>
       </c>
@@ -7571,8 +9569,14 @@
       <c r="D333" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333">
+        <v>40.24007039</v>
+      </c>
+      <c r="F333">
+        <v>-79.806434490000001</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>333</v>
       </c>
@@ -7585,8 +9589,14 @@
       <c r="D334" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334">
+        <v>39.777372219999997</v>
+      </c>
+      <c r="F334">
+        <v>-119.3375222</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>334</v>
       </c>
@@ -7599,8 +9609,14 @@
       <c r="D335" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335">
+        <v>39.26385827</v>
+      </c>
+      <c r="F335">
+        <v>-110.3465461</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>335</v>
       </c>
@@ -7613,8 +9629,14 @@
       <c r="D336" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336">
+        <v>29.22218531</v>
+      </c>
+      <c r="F336">
+        <v>-98.355846270000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>336</v>
       </c>
@@ -7627,8 +9649,14 @@
       <c r="D337" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337">
+        <v>44.436404469999999</v>
+      </c>
+      <c r="F337">
+        <v>-83.433860899999999</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>337</v>
       </c>
@@ -7641,8 +9669,14 @@
       <c r="D338" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338">
+        <v>41.756754950000001</v>
+      </c>
+      <c r="F338">
+        <v>-75.05738968</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>338</v>
       </c>
@@ -7655,8 +9689,14 @@
       <c r="D339" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339">
+        <v>37.626875230000003</v>
+      </c>
+      <c r="F339">
+        <v>-120.9879889</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>339</v>
       </c>
@@ -7669,8 +9709,14 @@
       <c r="D340" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340">
+        <v>39.714489</v>
+      </c>
+      <c r="F340">
+        <v>-86.200542999999996</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>340</v>
       </c>
@@ -7683,8 +9729,14 @@
       <c r="D341" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341">
+        <v>38.635460109999997</v>
+      </c>
+      <c r="F341">
+        <v>-121.22772620000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>341</v>
       </c>
@@ -7697,8 +9749,14 @@
       <c r="D342" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342">
+        <v>41.508978200000001</v>
+      </c>
+      <c r="F342">
+        <v>-74.985723460000003</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>342</v>
       </c>
@@ -7711,8 +9769,14 @@
       <c r="D343" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343">
+        <v>42.437345970000003</v>
+      </c>
+      <c r="F343">
+        <v>-122.9872678</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>343</v>
       </c>
@@ -7725,8 +9789,14 @@
       <c r="D344" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344">
+        <v>33.65666667</v>
+      </c>
+      <c r="F344">
+        <v>-84.673611109999996</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
         <v>344</v>
       </c>
@@ -7739,8 +9809,14 @@
       <c r="D345" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345">
+        <v>38.356933740000002</v>
+      </c>
+      <c r="F345">
+        <v>-108.8334347</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
         <v>345</v>
       </c>
@@ -7753,8 +9829,14 @@
       <c r="D346" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346">
+        <v>41.841449169999997</v>
+      </c>
+      <c r="F346">
+        <v>-79.011984630000001</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
         <v>346</v>
       </c>
@@ -7767,8 +9849,14 @@
       <c r="D347" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347">
+        <v>45.490205770000003</v>
+      </c>
+      <c r="F347">
+        <v>-111.6341382</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
         <v>347</v>
       </c>
@@ -7781,8 +9869,14 @@
       <c r="D348" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348">
+        <v>40.88867389</v>
+      </c>
+      <c r="F348">
+        <v>-80.337008350000005</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
         <v>348</v>
       </c>
@@ -7795,8 +9889,14 @@
       <c r="D349" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349">
+        <v>46.899650000000001</v>
+      </c>
+      <c r="F349">
+        <v>-113.7564872</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
         <v>349</v>
       </c>
@@ -7809,8 +9909,14 @@
       <c r="D350" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350">
+        <v>38.723610999999998</v>
+      </c>
+      <c r="F350">
+        <v>-87.664444000000003</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
         <v>350</v>
       </c>
@@ -7823,8 +9929,14 @@
       <c r="D351" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351">
+        <v>43.434745999999997</v>
+      </c>
+      <c r="F351">
+        <v>-85.665323999999998</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>351</v>
       </c>
@@ -7837,8 +9949,14 @@
       <c r="D352" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352">
+        <v>34.050981999999998</v>
+      </c>
+      <c r="F352">
+        <v>-81.209541999999999</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>352</v>
       </c>
@@ -7851,8 +9969,14 @@
       <c r="D353" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353">
+        <v>39.497547699999998</v>
+      </c>
+      <c r="F353">
+        <v>-86.400549519999998</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>353</v>
       </c>
@@ -7865,8 +9989,14 @@
       <c r="D354" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354">
+        <v>42.43039607</v>
+      </c>
+      <c r="F354">
+        <v>-123.3178365</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>354</v>
       </c>
@@ -7879,8 +10009,14 @@
       <c r="D355" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355">
+        <v>43.141722000000001</v>
+      </c>
+      <c r="F355">
+        <v>-77.616305999999994</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>355</v>
       </c>
@@ -7893,8 +10029,14 @@
       <c r="D356" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356">
+        <v>34.01404162</v>
+      </c>
+      <c r="F356">
+        <v>-81.087871699999994</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>356</v>
       </c>
@@ -7907,8 +10049,14 @@
       <c r="D357" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357">
+        <v>45.111879700000003</v>
+      </c>
+      <c r="F357">
+        <v>-110.79438140000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>357</v>
       </c>
@@ -7921,8 +10069,14 @@
       <c r="D358" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358">
+        <v>44.498729330000003</v>
+      </c>
+      <c r="F358">
+        <v>-121.3211558</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>358</v>
       </c>
@@ -7935,8 +10089,14 @@
       <c r="D359" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359">
+        <v>39.152461099999996</v>
+      </c>
+      <c r="F359">
+        <v>-119.09888890000001</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>359</v>
       </c>
@@ -7949,8 +10109,14 @@
       <c r="D360" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360">
+        <v>34.596250400000002</v>
+      </c>
+      <c r="F360">
+        <v>-81.422042300000001</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>360</v>
       </c>
@@ -7963,8 +10129,14 @@
       <c r="D361" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361">
+        <v>34.057108290000002</v>
+      </c>
+      <c r="F361">
+        <v>-79.246989740000004</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>361</v>
       </c>
@@ -7977,8 +10149,14 @@
       <c r="D362" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362">
+        <v>47.43277097</v>
+      </c>
+      <c r="F362">
+        <v>-98.027595410000004</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>362</v>
       </c>
@@ -7991,8 +10169,14 @@
       <c r="D363" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363">
+        <v>42.564858579999999</v>
+      </c>
+      <c r="F363">
+        <v>-121.87945929999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>363</v>
       </c>
@@ -8005,8 +10189,14 @@
       <c r="D364" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364">
+        <v>33.909541779999998</v>
+      </c>
+      <c r="F364">
+        <v>-98.533666289999999</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>364</v>
       </c>
@@ -8019,8 +10209,14 @@
       <c r="D365" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365">
+        <v>36.801393900000001</v>
+      </c>
+      <c r="F365">
+        <v>-107.69811350000001</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>365</v>
       </c>
@@ -8033,8 +10229,14 @@
       <c r="D366" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E366">
+        <v>39.664987379999999</v>
+      </c>
+      <c r="F366">
+        <v>-105.00414910000001</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>366</v>
       </c>
@@ -8047,8 +10249,14 @@
       <c r="D367" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E367">
+        <v>46.703276389999999</v>
+      </c>
+      <c r="F367">
+        <v>-92.418801669999993</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>367</v>
       </c>
@@ -8061,8 +10269,14 @@
       <c r="D368" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E368">
+        <v>44.27040126</v>
+      </c>
+      <c r="F368">
+        <v>-123.1737036</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>368</v>
       </c>
@@ -8075,8 +10289,14 @@
       <c r="D369" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E369">
+        <v>41.829213799999998</v>
+      </c>
+      <c r="F369">
+        <v>-86.259732450000001</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>369</v>
       </c>
@@ -8089,8 +10309,14 @@
       <c r="D370" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E370">
+        <v>40.215517120000001</v>
+      </c>
+      <c r="F370">
+        <v>-109.7834764</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>370</v>
       </c>
@@ -8103,8 +10329,14 @@
       <c r="D371" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E371">
+        <v>42.223478</v>
+      </c>
+      <c r="F371">
+        <v>-121.79417100000001</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>371</v>
       </c>
@@ -8117,8 +10349,14 @@
       <c r="D372" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E372">
+        <v>45.325808950000003</v>
+      </c>
+      <c r="F372">
+        <v>-87.663445999999993</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>372</v>
       </c>
@@ -8131,8 +10369,14 @@
       <c r="D373" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E373">
+        <v>42.580386670000003</v>
+      </c>
+      <c r="F373">
+        <v>-124.0595333</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>373</v>
       </c>
@@ -8145,8 +10389,14 @@
       <c r="D374" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E374">
+        <v>47.033871830000002</v>
+      </c>
+      <c r="F374">
+        <v>-98.083707689999997</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>374</v>
       </c>
@@ -8159,8 +10409,14 @@
       <c r="D375" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E375">
+        <v>39.825076959999997</v>
+      </c>
+      <c r="F375">
+        <v>-79.922832929999998</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>375</v>
       </c>
@@ -8173,8 +10429,14 @@
       <c r="D376" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E376">
+        <v>44.492340740000003</v>
+      </c>
+      <c r="F376">
+        <v>-121.298377</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>376</v>
       </c>
@@ -8187,8 +10449,14 @@
       <c r="D377" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E377">
+        <v>38.797208050000002</v>
+      </c>
+      <c r="F377">
+        <v>-109.19511420000001</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>377</v>
       </c>
@@ -8201,8 +10469,14 @@
       <c r="D378" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E378">
+        <v>38.253613999999999</v>
+      </c>
+      <c r="F378">
+        <v>-104.60608499999999</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
         <v>378</v>
       </c>
@@ -8215,8 +10489,14 @@
       <c r="D379" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E379">
+        <v>44.638732830000002</v>
+      </c>
+      <c r="F379">
+        <v>-123.1067616</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>379</v>
       </c>
@@ -8229,8 +10509,14 @@
       <c r="D380" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E380">
+        <v>43.451735050000003</v>
+      </c>
+      <c r="F380">
+        <v>-76.505219170000004</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>380</v>
       </c>
@@ -8243,8 +10529,14 @@
       <c r="D381" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E381">
+        <v>41.346698050000001</v>
+      </c>
+      <c r="F381">
+        <v>-88.186448709999993</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
         <v>381</v>
       </c>
@@ -8257,8 +10549,14 @@
       <c r="D382" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E382">
+        <v>38.329216109999997</v>
+      </c>
+      <c r="F382">
+        <v>-89.879269140000005</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>382</v>
       </c>
@@ -8271,8 +10569,14 @@
       <c r="D383" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E383">
+        <v>40.262292250000002</v>
+      </c>
+      <c r="F383">
+        <v>-79.901159739999997</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>383</v>
       </c>
@@ -8285,8 +10589,14 @@
       <c r="D384" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E384">
+        <v>46.478333329999998</v>
+      </c>
+      <c r="F384">
+        <v>-116.25749999999999</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>384</v>
       </c>
@@ -8299,8 +10609,14 @@
       <c r="D385" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E385">
+        <v>38.753039440000002</v>
+      </c>
+      <c r="F385">
+        <v>-108.0784031</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>385</v>
       </c>
@@ -8313,8 +10629,14 @@
       <c r="D386" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E386">
+        <v>38.24805799</v>
+      </c>
+      <c r="F386">
+        <v>-104.39913559999999</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>386</v>
       </c>
@@ -8327,8 +10649,14 @@
       <c r="D387" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E387">
+        <v>44.528604000000001</v>
+      </c>
+      <c r="F387">
+        <v>-88.010103999999998</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>387</v>
       </c>
@@ -8341,8 +10669,14 @@
       <c r="D388" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E388">
+        <v>46.86107501</v>
+      </c>
+      <c r="F388">
+        <v>-96.783692400000007</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>388</v>
       </c>
@@ -8355,8 +10689,14 @@
       <c r="D389" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E389">
+        <v>29.596357999999999</v>
+      </c>
+      <c r="F389">
+        <v>-81.683138</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>389</v>
       </c>
@@ -8369,8 +10709,14 @@
       <c r="D390" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E390">
+        <v>42.13319946</v>
+      </c>
+      <c r="F390">
+        <v>-121.9622313</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>390</v>
       </c>
@@ -8383,8 +10729,14 @@
       <c r="D391" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E391">
+        <v>36.72278043</v>
+      </c>
+      <c r="F391">
+        <v>-108.2256302</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>391</v>
       </c>
@@ -8397,8 +10749,14 @@
       <c r="D392" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E392">
+        <v>42.123080999999999</v>
+      </c>
+      <c r="F392">
+        <v>-89.255939999999995</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>392</v>
       </c>
@@ -8411,8 +10769,14 @@
       <c r="D393" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E393">
+        <v>46.500277779999998</v>
+      </c>
+      <c r="F393">
+        <v>-116.3925</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>393</v>
       </c>
@@ -8425,8 +10789,14 @@
       <c r="D394" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E394">
+        <v>44.725952249999999</v>
+      </c>
+      <c r="F394">
+        <v>-121.24699390000001</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>394</v>
       </c>
@@ -8439,8 +10809,14 @@
       <c r="D395" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E395">
+        <v>45.284562999999999</v>
+      </c>
+      <c r="F395">
+        <v>-122.961489</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>395</v>
       </c>
@@ -8453,8 +10829,14 @@
       <c r="D396" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E396">
+        <v>37.309938600000002</v>
+      </c>
+      <c r="F396">
+        <v>-120.9310369</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>396</v>
       </c>
@@ -8467,8 +10849,14 @@
       <c r="D397" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E397">
+        <v>46.448498280000003</v>
+      </c>
+      <c r="F397">
+        <v>-116.8273749</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>397</v>
       </c>
@@ -8481,8 +10869,14 @@
       <c r="D398" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E398">
+        <v>45.622067829999999</v>
+      </c>
+      <c r="F398">
+        <v>-120.9025647</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>398</v>
       </c>
@@ -8495,8 +10889,14 @@
       <c r="D399" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E399">
+        <v>45.518451630000001</v>
+      </c>
+      <c r="F399">
+        <v>-122.6678735</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>399</v>
       </c>
@@ -8509,8 +10909,14 @@
       <c r="D400" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E400">
+        <v>40.958142180000003</v>
+      </c>
+      <c r="F400">
+        <v>-76.619122250000004</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>400</v>
       </c>
@@ -8523,8 +10929,14 @@
       <c r="D401" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E401">
+        <v>37.43188</v>
+      </c>
+      <c r="F401">
+        <v>-121.01382</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>401</v>
       </c>
@@ -8537,8 +10949,14 @@
       <c r="D402" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E402">
+        <v>35.616993000000001</v>
+      </c>
+      <c r="F402">
+        <v>-98.065331999999998</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>402</v>
       </c>
@@ -8551,8 +10969,14 @@
       <c r="D403" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E403">
+        <v>35.539498999999999</v>
+      </c>
+      <c r="F403">
+        <v>-97.742543999999995</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>403</v>
       </c>
@@ -8565,8 +10989,14 @@
       <c r="D404" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E404">
+        <v>35.565615000000001</v>
+      </c>
+      <c r="F404">
+        <v>-97.367258000000007</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>404</v>
       </c>
@@ -8579,8 +11009,14 @@
       <c r="D405" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E405">
+        <v>39.009894760000002</v>
+      </c>
+      <c r="F405">
+        <v>-121.82469</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>405</v>
       </c>
@@ -8593,8 +11029,14 @@
       <c r="D406" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E406">
+        <v>35.617808740000001</v>
+      </c>
+      <c r="F406">
+        <v>-106.3244705</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>406</v>
       </c>
@@ -8607,8 +11049,14 @@
       <c r="D407" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E407">
+        <v>46.146040280000001</v>
+      </c>
+      <c r="F407">
+        <v>-111.42052</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>407</v>
       </c>
@@ -8621,8 +11069,14 @@
       <c r="D408" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E408">
+        <v>40.908292959999997</v>
+      </c>
+      <c r="F408">
+        <v>-109.42291400000001</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>408</v>
       </c>
@@ -8635,8 +11089,14 @@
       <c r="D409" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E409">
+        <v>31.71542973</v>
+      </c>
+      <c r="F409">
+        <v>-100.0264755</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>409</v>
       </c>
@@ -8649,8 +11109,14 @@
       <c r="D410" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E410">
+        <v>46.994664999999998</v>
+      </c>
+      <c r="F410">
+        <v>-112.0111108</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>410</v>
       </c>
@@ -8662,6 +11128,12 @@
       </c>
       <c r="D411" s="2" t="s">
         <v>832</v>
+      </c>
+      <c r="E411">
+        <v>39.132760470000001</v>
+      </c>
+      <c r="F411">
+        <v>-109.0270546</v>
       </c>
     </row>
   </sheetData>
